--- a/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_見本.xlsx
+++ b/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_見本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\634sv\share\kimura\プログラム設計演習-Project χχχχ\2.システム設計\01_機能・画面一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Documents/GitHub/SSH48/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898838F3-8A75-2C45-A2FD-9957A03501C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16140" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -33,26 +34,46 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>西野　直幸</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>画面 or バッチ</t>
+          <t>画面</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve"> or </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>バッチ</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -378,10 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フロント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -397,30 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F1-2-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-4-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-4-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-5-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-5-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-4-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示形式切り替え</t>
     <rPh sb="0" eb="5">
       <t>ヒョ</t>
@@ -428,249 +421,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1日表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>週間表示</t>
-    <rPh sb="0" eb="4">
-      <t>シュウカn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>週間表示画面から1日表示画面への切り替えを行う</t>
-    <rPh sb="0" eb="6">
-      <t>シュウカンヒョウジg</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キリカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日表示画面から週間表示画面への切り替えを行う</t>
-    <rPh sb="8" eb="14">
-      <t>シュウカn</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キリカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定機能</t>
-    <rPh sb="0" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ追加機能</t>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ詳細設定機能</t>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参加グループ表示</t>
-    <rPh sb="0" eb="2">
-      <t>サンk</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自身が参加しているグループを表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ジシn</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サンk</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール反映機能</t>
-    <rPh sb="6" eb="8">
-      <t>ハンエ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定のグループのスケジュールを反映させるかを設定する</t>
-    <rPh sb="0" eb="2">
-      <t>トクテ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハンエ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ脱退</t>
-    <rPh sb="4" eb="6">
-      <t>ダッタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自身が登録していないグループに参加する</t>
-    <rPh sb="0" eb="2">
-      <t>ジシn</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録しているグループを抜ける</t>
-    <rPh sb="0" eb="2">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヌk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存在するグループを全て表示させる</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スベt</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>科目の詳細</t>
-    <rPh sb="0" eb="2">
-      <t>カモk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更した場合は保存して1日表示画面に戻る。　変更しない場合は保存せずに1日表示画面に戻る</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バア</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定の日の１日表示</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>F1-1-3</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>週間表示画面時にいずれかの日付列をタップし、その日付を１日表示画面で表示する</t>
-    <rPh sb="0" eb="6">
-      <t>シュウカンヒョウジガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール管理</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>情報工学科　1年</t>
@@ -693,48 +445,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>木下</t>
-    <rPh sb="0" eb="2">
-      <t>キノシタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rev 1.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定機能</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール管理</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール管理　システム設計書</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セッケイショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -769,133 +480,278 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rev 1.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中山</t>
+    <t>エアーコンやん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアーコンやん　昨日一覧</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム待機画面表示</t>
     <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>忘れ物チェックリスト機能の追加</t>
+      <t>タイキガメmン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票開始確認画面表示</t>
     <rPh sb="0" eb="1">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
+      <t>トウヒョウルーム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票画面表示</t>
+    <rPh sb="0" eb="1">
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票終了画面</t>
+    <rPh sb="0" eb="1">
+      <t>トウヒョウルーム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票結果表示画面表示</t>
+    <rPh sb="0" eb="1">
+      <t>トウヒョウルーム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票中止画面表示</t>
+    <rPh sb="0" eb="1">
+      <t>トウヒョウル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="1">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットルームに「あつい」「さむい」のコメントが受信しされた場合</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシンシサエタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム待機画面から投票開始確認画面への切り替えを行う</t>
+    <rPh sb="0" eb="4">
+      <t>タイキガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム待機画面表示を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票開始確認画面から投票ルーム投票画面に切り替える</t>
+    <rPh sb="0" eb="1">
+      <t>トウヒョウルーム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票開始確認画面でユーザーがYESを指定した場合</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票画面から投票ルーム投票終了画面に切り換える</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム投票終了画面から投票ルーム投票結果表示画面表示に切り替える</t>
+    <rPh sb="0" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票結果表示後投票待機画面に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>トウヒョウケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-1-2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-1-2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-1-2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ルーム待機画面から投票ルーム投票中止画面への切り替えを行う</t>
+    <rPh sb="0" eb="4">
+      <t>タイキガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度反映</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック機能</t>
-    <rPh sb="4" eb="6">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-2-1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤外線情報作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-X-1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアコンIDと温度情報から赤外線情報を作成する</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取った赤外線情報からラズベリパイで信号を送る</t>
+    <rPh sb="0" eb="5">
+      <t>セキガイセンジョウホウカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号情報送信</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="1">
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面</t>
+    <t>F-X-1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤外線情報をラズベリーパイに送信する</t>
+    <rPh sb="0" eb="5">
+      <t>ヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号受信</t>
     <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-6-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>忘れ物チェックリストを表示してチェックができる機能</t>
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-2-2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功失敗判定の受信を行う</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票Y/Nテンプレート</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票温度テンプレート</t>
     <rPh sb="0" eb="1">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェックリスト生成機能</t>
-    <rPh sb="7" eb="9">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>忘れ物
-チェックリスト機能</t>
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアー来んやん</t>
     <rPh sb="0" eb="1">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>忘れ物チェックリストを生成する機能</t>
-    <rPh sb="0" eb="1">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-6-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>科目設定変更</t>
+      <t>クル</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>中西</t>
     <rPh sb="0" eb="2">
-      <t>カモk</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予備（設定を追加したときにつかう）</t>
-    <rPh sb="0" eb="2">
-      <t>ヨビ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ツイカ</t>
+      <t>ナカニシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -903,11 +759,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +852,13 @@
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1207,7 +1070,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,20 +1155,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,6 +1168,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,35 +1220,26 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1382,23 +1251,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1408,41 +1265,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準_Sheet1" xfId="4"/>
-    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1" xfId="3"/>
-    <cellStyle name="標準_システム管理" xfId="2"/>
-    <cellStyle name="標準_種別マスタ" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_システム管理" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1743,214 +1594,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.19921875" style="6" customWidth="1"/>
-    <col min="5" max="6" width="4.19921875" style="35" customWidth="1"/>
-    <col min="7" max="29" width="4.19921875" style="6" customWidth="1"/>
-    <col min="30" max="30" width="5.09765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="4.19921875" style="21" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="35" customWidth="1"/>
+    <col min="7" max="29" width="4.1640625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="5.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.1640625" style="21" customWidth="1"/>
     <col min="33" max="36" width="4" style="6" customWidth="1"/>
-    <col min="37" max="256" width="8.796875" style="6"/>
-    <col min="257" max="288" width="4.19921875" style="6" customWidth="1"/>
+    <col min="37" max="256" width="8.83203125" style="6"/>
+    <col min="257" max="288" width="4.1640625" style="6" customWidth="1"/>
     <col min="289" max="292" width="4" style="6" customWidth="1"/>
-    <col min="293" max="512" width="8.796875" style="6"/>
-    <col min="513" max="544" width="4.19921875" style="6" customWidth="1"/>
+    <col min="293" max="512" width="8.83203125" style="6"/>
+    <col min="513" max="544" width="4.1640625" style="6" customWidth="1"/>
     <col min="545" max="548" width="4" style="6" customWidth="1"/>
-    <col min="549" max="768" width="8.796875" style="6"/>
-    <col min="769" max="800" width="4.19921875" style="6" customWidth="1"/>
+    <col min="549" max="768" width="8.83203125" style="6"/>
+    <col min="769" max="800" width="4.1640625" style="6" customWidth="1"/>
     <col min="801" max="804" width="4" style="6" customWidth="1"/>
-    <col min="805" max="1024" width="8.796875" style="6"/>
-    <col min="1025" max="1056" width="4.19921875" style="6" customWidth="1"/>
+    <col min="805" max="1024" width="8.83203125" style="6"/>
+    <col min="1025" max="1056" width="4.1640625" style="6" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="6" customWidth="1"/>
-    <col min="1061" max="1280" width="8.796875" style="6"/>
-    <col min="1281" max="1312" width="4.19921875" style="6" customWidth="1"/>
+    <col min="1061" max="1280" width="8.83203125" style="6"/>
+    <col min="1281" max="1312" width="4.1640625" style="6" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="6" customWidth="1"/>
-    <col min="1317" max="1536" width="8.796875" style="6"/>
-    <col min="1537" max="1568" width="4.19921875" style="6" customWidth="1"/>
+    <col min="1317" max="1536" width="8.83203125" style="6"/>
+    <col min="1537" max="1568" width="4.1640625" style="6" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="6" customWidth="1"/>
-    <col min="1573" max="1792" width="8.796875" style="6"/>
-    <col min="1793" max="1824" width="4.19921875" style="6" customWidth="1"/>
+    <col min="1573" max="1792" width="8.83203125" style="6"/>
+    <col min="1793" max="1824" width="4.1640625" style="6" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="6" customWidth="1"/>
-    <col min="1829" max="2048" width="8.796875" style="6"/>
-    <col min="2049" max="2080" width="4.19921875" style="6" customWidth="1"/>
+    <col min="1829" max="2048" width="8.83203125" style="6"/>
+    <col min="2049" max="2080" width="4.1640625" style="6" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="6" customWidth="1"/>
-    <col min="2085" max="2304" width="8.796875" style="6"/>
-    <col min="2305" max="2336" width="4.19921875" style="6" customWidth="1"/>
+    <col min="2085" max="2304" width="8.83203125" style="6"/>
+    <col min="2305" max="2336" width="4.1640625" style="6" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="6" customWidth="1"/>
-    <col min="2341" max="2560" width="8.796875" style="6"/>
-    <col min="2561" max="2592" width="4.19921875" style="6" customWidth="1"/>
+    <col min="2341" max="2560" width="8.83203125" style="6"/>
+    <col min="2561" max="2592" width="4.1640625" style="6" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="6" customWidth="1"/>
-    <col min="2597" max="2816" width="8.796875" style="6"/>
-    <col min="2817" max="2848" width="4.19921875" style="6" customWidth="1"/>
+    <col min="2597" max="2816" width="8.83203125" style="6"/>
+    <col min="2817" max="2848" width="4.1640625" style="6" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="6" customWidth="1"/>
-    <col min="2853" max="3072" width="8.796875" style="6"/>
-    <col min="3073" max="3104" width="4.19921875" style="6" customWidth="1"/>
+    <col min="2853" max="3072" width="8.83203125" style="6"/>
+    <col min="3073" max="3104" width="4.1640625" style="6" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="6" customWidth="1"/>
-    <col min="3109" max="3328" width="8.796875" style="6"/>
-    <col min="3329" max="3360" width="4.19921875" style="6" customWidth="1"/>
+    <col min="3109" max="3328" width="8.83203125" style="6"/>
+    <col min="3329" max="3360" width="4.1640625" style="6" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="6" customWidth="1"/>
-    <col min="3365" max="3584" width="8.796875" style="6"/>
-    <col min="3585" max="3616" width="4.19921875" style="6" customWidth="1"/>
+    <col min="3365" max="3584" width="8.83203125" style="6"/>
+    <col min="3585" max="3616" width="4.1640625" style="6" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="6" customWidth="1"/>
-    <col min="3621" max="3840" width="8.796875" style="6"/>
-    <col min="3841" max="3872" width="4.19921875" style="6" customWidth="1"/>
+    <col min="3621" max="3840" width="8.83203125" style="6"/>
+    <col min="3841" max="3872" width="4.1640625" style="6" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="6" customWidth="1"/>
-    <col min="3877" max="4096" width="8.796875" style="6"/>
-    <col min="4097" max="4128" width="4.19921875" style="6" customWidth="1"/>
+    <col min="3877" max="4096" width="8.83203125" style="6"/>
+    <col min="4097" max="4128" width="4.1640625" style="6" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="6" customWidth="1"/>
-    <col min="4133" max="4352" width="8.796875" style="6"/>
-    <col min="4353" max="4384" width="4.19921875" style="6" customWidth="1"/>
+    <col min="4133" max="4352" width="8.83203125" style="6"/>
+    <col min="4353" max="4384" width="4.1640625" style="6" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="6" customWidth="1"/>
-    <col min="4389" max="4608" width="8.796875" style="6"/>
-    <col min="4609" max="4640" width="4.19921875" style="6" customWidth="1"/>
+    <col min="4389" max="4608" width="8.83203125" style="6"/>
+    <col min="4609" max="4640" width="4.1640625" style="6" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="6" customWidth="1"/>
-    <col min="4645" max="4864" width="8.796875" style="6"/>
-    <col min="4865" max="4896" width="4.19921875" style="6" customWidth="1"/>
+    <col min="4645" max="4864" width="8.83203125" style="6"/>
+    <col min="4865" max="4896" width="4.1640625" style="6" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="6" customWidth="1"/>
-    <col min="4901" max="5120" width="8.796875" style="6"/>
-    <col min="5121" max="5152" width="4.19921875" style="6" customWidth="1"/>
+    <col min="4901" max="5120" width="8.83203125" style="6"/>
+    <col min="5121" max="5152" width="4.1640625" style="6" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="6" customWidth="1"/>
-    <col min="5157" max="5376" width="8.796875" style="6"/>
-    <col min="5377" max="5408" width="4.19921875" style="6" customWidth="1"/>
+    <col min="5157" max="5376" width="8.83203125" style="6"/>
+    <col min="5377" max="5408" width="4.1640625" style="6" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="6" customWidth="1"/>
-    <col min="5413" max="5632" width="8.796875" style="6"/>
-    <col min="5633" max="5664" width="4.19921875" style="6" customWidth="1"/>
+    <col min="5413" max="5632" width="8.83203125" style="6"/>
+    <col min="5633" max="5664" width="4.1640625" style="6" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="6" customWidth="1"/>
-    <col min="5669" max="5888" width="8.796875" style="6"/>
-    <col min="5889" max="5920" width="4.19921875" style="6" customWidth="1"/>
+    <col min="5669" max="5888" width="8.83203125" style="6"/>
+    <col min="5889" max="5920" width="4.1640625" style="6" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="6" customWidth="1"/>
-    <col min="5925" max="6144" width="8.796875" style="6"/>
-    <col min="6145" max="6176" width="4.19921875" style="6" customWidth="1"/>
+    <col min="5925" max="6144" width="8.83203125" style="6"/>
+    <col min="6145" max="6176" width="4.1640625" style="6" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="6" customWidth="1"/>
-    <col min="6181" max="6400" width="8.796875" style="6"/>
-    <col min="6401" max="6432" width="4.19921875" style="6" customWidth="1"/>
+    <col min="6181" max="6400" width="8.83203125" style="6"/>
+    <col min="6401" max="6432" width="4.1640625" style="6" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="6" customWidth="1"/>
-    <col min="6437" max="6656" width="8.796875" style="6"/>
-    <col min="6657" max="6688" width="4.19921875" style="6" customWidth="1"/>
+    <col min="6437" max="6656" width="8.83203125" style="6"/>
+    <col min="6657" max="6688" width="4.1640625" style="6" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="6" customWidth="1"/>
-    <col min="6693" max="6912" width="8.796875" style="6"/>
-    <col min="6913" max="6944" width="4.19921875" style="6" customWidth="1"/>
+    <col min="6693" max="6912" width="8.83203125" style="6"/>
+    <col min="6913" max="6944" width="4.1640625" style="6" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="6" customWidth="1"/>
-    <col min="6949" max="7168" width="8.796875" style="6"/>
-    <col min="7169" max="7200" width="4.19921875" style="6" customWidth="1"/>
+    <col min="6949" max="7168" width="8.83203125" style="6"/>
+    <col min="7169" max="7200" width="4.1640625" style="6" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="6" customWidth="1"/>
-    <col min="7205" max="7424" width="8.796875" style="6"/>
-    <col min="7425" max="7456" width="4.19921875" style="6" customWidth="1"/>
+    <col min="7205" max="7424" width="8.83203125" style="6"/>
+    <col min="7425" max="7456" width="4.1640625" style="6" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="6" customWidth="1"/>
-    <col min="7461" max="7680" width="8.796875" style="6"/>
-    <col min="7681" max="7712" width="4.19921875" style="6" customWidth="1"/>
+    <col min="7461" max="7680" width="8.83203125" style="6"/>
+    <col min="7681" max="7712" width="4.1640625" style="6" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="6" customWidth="1"/>
-    <col min="7717" max="7936" width="8.796875" style="6"/>
-    <col min="7937" max="7968" width="4.19921875" style="6" customWidth="1"/>
+    <col min="7717" max="7936" width="8.83203125" style="6"/>
+    <col min="7937" max="7968" width="4.1640625" style="6" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="6" customWidth="1"/>
-    <col min="7973" max="8192" width="8.796875" style="6"/>
-    <col min="8193" max="8224" width="4.19921875" style="6" customWidth="1"/>
+    <col min="7973" max="8192" width="8.83203125" style="6"/>
+    <col min="8193" max="8224" width="4.1640625" style="6" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="6" customWidth="1"/>
-    <col min="8229" max="8448" width="8.796875" style="6"/>
-    <col min="8449" max="8480" width="4.19921875" style="6" customWidth="1"/>
+    <col min="8229" max="8448" width="8.83203125" style="6"/>
+    <col min="8449" max="8480" width="4.1640625" style="6" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="6" customWidth="1"/>
-    <col min="8485" max="8704" width="8.796875" style="6"/>
-    <col min="8705" max="8736" width="4.19921875" style="6" customWidth="1"/>
+    <col min="8485" max="8704" width="8.83203125" style="6"/>
+    <col min="8705" max="8736" width="4.1640625" style="6" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="6" customWidth="1"/>
-    <col min="8741" max="8960" width="8.796875" style="6"/>
-    <col min="8961" max="8992" width="4.19921875" style="6" customWidth="1"/>
+    <col min="8741" max="8960" width="8.83203125" style="6"/>
+    <col min="8961" max="8992" width="4.1640625" style="6" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="6" customWidth="1"/>
-    <col min="8997" max="9216" width="8.796875" style="6"/>
-    <col min="9217" max="9248" width="4.19921875" style="6" customWidth="1"/>
+    <col min="8997" max="9216" width="8.83203125" style="6"/>
+    <col min="9217" max="9248" width="4.1640625" style="6" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="6" customWidth="1"/>
-    <col min="9253" max="9472" width="8.796875" style="6"/>
-    <col min="9473" max="9504" width="4.19921875" style="6" customWidth="1"/>
+    <col min="9253" max="9472" width="8.83203125" style="6"/>
+    <col min="9473" max="9504" width="4.1640625" style="6" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="6" customWidth="1"/>
-    <col min="9509" max="9728" width="8.796875" style="6"/>
-    <col min="9729" max="9760" width="4.19921875" style="6" customWidth="1"/>
+    <col min="9509" max="9728" width="8.83203125" style="6"/>
+    <col min="9729" max="9760" width="4.1640625" style="6" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="6" customWidth="1"/>
-    <col min="9765" max="9984" width="8.796875" style="6"/>
-    <col min="9985" max="10016" width="4.19921875" style="6" customWidth="1"/>
+    <col min="9765" max="9984" width="8.83203125" style="6"/>
+    <col min="9985" max="10016" width="4.1640625" style="6" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="6" customWidth="1"/>
-    <col min="10021" max="10240" width="8.796875" style="6"/>
-    <col min="10241" max="10272" width="4.19921875" style="6" customWidth="1"/>
+    <col min="10021" max="10240" width="8.83203125" style="6"/>
+    <col min="10241" max="10272" width="4.1640625" style="6" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="6" customWidth="1"/>
-    <col min="10277" max="10496" width="8.796875" style="6"/>
-    <col min="10497" max="10528" width="4.19921875" style="6" customWidth="1"/>
+    <col min="10277" max="10496" width="8.83203125" style="6"/>
+    <col min="10497" max="10528" width="4.1640625" style="6" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="6" customWidth="1"/>
-    <col min="10533" max="10752" width="8.796875" style="6"/>
-    <col min="10753" max="10784" width="4.19921875" style="6" customWidth="1"/>
+    <col min="10533" max="10752" width="8.83203125" style="6"/>
+    <col min="10753" max="10784" width="4.1640625" style="6" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="6" customWidth="1"/>
-    <col min="10789" max="11008" width="8.796875" style="6"/>
-    <col min="11009" max="11040" width="4.19921875" style="6" customWidth="1"/>
+    <col min="10789" max="11008" width="8.83203125" style="6"/>
+    <col min="11009" max="11040" width="4.1640625" style="6" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="6" customWidth="1"/>
-    <col min="11045" max="11264" width="8.796875" style="6"/>
-    <col min="11265" max="11296" width="4.19921875" style="6" customWidth="1"/>
+    <col min="11045" max="11264" width="8.83203125" style="6"/>
+    <col min="11265" max="11296" width="4.1640625" style="6" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="6" customWidth="1"/>
-    <col min="11301" max="11520" width="8.796875" style="6"/>
-    <col min="11521" max="11552" width="4.19921875" style="6" customWidth="1"/>
+    <col min="11301" max="11520" width="8.83203125" style="6"/>
+    <col min="11521" max="11552" width="4.1640625" style="6" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="6" customWidth="1"/>
-    <col min="11557" max="11776" width="8.796875" style="6"/>
-    <col min="11777" max="11808" width="4.19921875" style="6" customWidth="1"/>
+    <col min="11557" max="11776" width="8.83203125" style="6"/>
+    <col min="11777" max="11808" width="4.1640625" style="6" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="6" customWidth="1"/>
-    <col min="11813" max="12032" width="8.796875" style="6"/>
-    <col min="12033" max="12064" width="4.19921875" style="6" customWidth="1"/>
+    <col min="11813" max="12032" width="8.83203125" style="6"/>
+    <col min="12033" max="12064" width="4.1640625" style="6" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="6" customWidth="1"/>
-    <col min="12069" max="12288" width="8.796875" style="6"/>
-    <col min="12289" max="12320" width="4.19921875" style="6" customWidth="1"/>
+    <col min="12069" max="12288" width="8.83203125" style="6"/>
+    <col min="12289" max="12320" width="4.1640625" style="6" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="6" customWidth="1"/>
-    <col min="12325" max="12544" width="8.796875" style="6"/>
-    <col min="12545" max="12576" width="4.19921875" style="6" customWidth="1"/>
+    <col min="12325" max="12544" width="8.83203125" style="6"/>
+    <col min="12545" max="12576" width="4.1640625" style="6" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="6" customWidth="1"/>
-    <col min="12581" max="12800" width="8.796875" style="6"/>
-    <col min="12801" max="12832" width="4.19921875" style="6" customWidth="1"/>
+    <col min="12581" max="12800" width="8.83203125" style="6"/>
+    <col min="12801" max="12832" width="4.1640625" style="6" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="6" customWidth="1"/>
-    <col min="12837" max="13056" width="8.796875" style="6"/>
-    <col min="13057" max="13088" width="4.19921875" style="6" customWidth="1"/>
+    <col min="12837" max="13056" width="8.83203125" style="6"/>
+    <col min="13057" max="13088" width="4.1640625" style="6" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="6" customWidth="1"/>
-    <col min="13093" max="13312" width="8.796875" style="6"/>
-    <col min="13313" max="13344" width="4.19921875" style="6" customWidth="1"/>
+    <col min="13093" max="13312" width="8.83203125" style="6"/>
+    <col min="13313" max="13344" width="4.1640625" style="6" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="6" customWidth="1"/>
-    <col min="13349" max="13568" width="8.796875" style="6"/>
-    <col min="13569" max="13600" width="4.19921875" style="6" customWidth="1"/>
+    <col min="13349" max="13568" width="8.83203125" style="6"/>
+    <col min="13569" max="13600" width="4.1640625" style="6" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="6" customWidth="1"/>
-    <col min="13605" max="13824" width="8.796875" style="6"/>
-    <col min="13825" max="13856" width="4.19921875" style="6" customWidth="1"/>
+    <col min="13605" max="13824" width="8.83203125" style="6"/>
+    <col min="13825" max="13856" width="4.1640625" style="6" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="6" customWidth="1"/>
-    <col min="13861" max="14080" width="8.796875" style="6"/>
-    <col min="14081" max="14112" width="4.19921875" style="6" customWidth="1"/>
+    <col min="13861" max="14080" width="8.83203125" style="6"/>
+    <col min="14081" max="14112" width="4.1640625" style="6" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="6" customWidth="1"/>
-    <col min="14117" max="14336" width="8.796875" style="6"/>
-    <col min="14337" max="14368" width="4.19921875" style="6" customWidth="1"/>
+    <col min="14117" max="14336" width="8.83203125" style="6"/>
+    <col min="14337" max="14368" width="4.1640625" style="6" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="6" customWidth="1"/>
-    <col min="14373" max="14592" width="8.796875" style="6"/>
-    <col min="14593" max="14624" width="4.19921875" style="6" customWidth="1"/>
+    <col min="14373" max="14592" width="8.83203125" style="6"/>
+    <col min="14593" max="14624" width="4.1640625" style="6" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="6" customWidth="1"/>
-    <col min="14629" max="14848" width="8.796875" style="6"/>
-    <col min="14849" max="14880" width="4.19921875" style="6" customWidth="1"/>
+    <col min="14629" max="14848" width="8.83203125" style="6"/>
+    <col min="14849" max="14880" width="4.1640625" style="6" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="6" customWidth="1"/>
-    <col min="14885" max="15104" width="8.796875" style="6"/>
-    <col min="15105" max="15136" width="4.19921875" style="6" customWidth="1"/>
+    <col min="14885" max="15104" width="8.83203125" style="6"/>
+    <col min="15105" max="15136" width="4.1640625" style="6" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="6" customWidth="1"/>
-    <col min="15141" max="15360" width="8.796875" style="6"/>
-    <col min="15361" max="15392" width="4.19921875" style="6" customWidth="1"/>
+    <col min="15141" max="15360" width="8.83203125" style="6"/>
+    <col min="15361" max="15392" width="4.1640625" style="6" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="6" customWidth="1"/>
-    <col min="15397" max="15616" width="8.796875" style="6"/>
-    <col min="15617" max="15648" width="4.19921875" style="6" customWidth="1"/>
+    <col min="15397" max="15616" width="8.83203125" style="6"/>
+    <col min="15617" max="15648" width="4.1640625" style="6" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="6" customWidth="1"/>
-    <col min="15653" max="15872" width="8.796875" style="6"/>
-    <col min="15873" max="15904" width="4.19921875" style="6" customWidth="1"/>
+    <col min="15653" max="15872" width="8.83203125" style="6"/>
+    <col min="15873" max="15904" width="4.1640625" style="6" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="6" customWidth="1"/>
-    <col min="15909" max="16128" width="8.796875" style="6"/>
-    <col min="16129" max="16160" width="4.19921875" style="6" customWidth="1"/>
+    <col min="15909" max="16128" width="8.83203125" style="6"/>
+    <col min="16129" max="16160" width="4.1640625" style="6" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="6" customWidth="1"/>
-    <col min="16165" max="16384" width="8.796875" style="6"/>
+    <col min="16165" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" ht="12">
+    <row r="1" spans="1:176" ht="14">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2187,14 +2038,14 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="70" t="s">
+      <c r="Y3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="71"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="45"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="20"/>
     </row>
@@ -2295,7 +2146,7 @@
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
@@ -2363,18 +2214,18 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="49" t="s">
+      <c r="Y8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="49" t="s">
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="49" t="s">
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="51"/>
+      <c r="AD8" s="48"/>
       <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -2385,20 +2236,20 @@
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -2406,36 +2257,36 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
       <c r="AF9" s="20"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -2443,32 +2294,32 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="79"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="56"/>
       <c r="AF10" s="20"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -2476,12 +2327,12 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="81"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="58"/>
       <c r="AF11" s="20"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -2700,18 +2551,18 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="19"/>
@@ -2736,16 +2587,16 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
@@ -2770,16 +2621,16 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
@@ -3010,85 +2861,77 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="67">
-        <v>42873</v>
-      </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="51"/>
+      <c r="B27" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="74">
+        <v>43636</v>
+      </c>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="48"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="28" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AE27" s="17"/>
       <c r="AF27" s="20"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52">
-        <v>42885</v>
-      </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="51"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="48"/>
       <c r="AC28" s="30"/>
-      <c r="AD28" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="AD28" s="28"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="20"/>
     </row>
@@ -3638,6 +3481,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="J27:AB27"/>
     <mergeCell ref="B27:E27"/>
@@ -3649,13 +3499,6 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:Q11"/>
-    <mergeCell ref="L18:U20"/>
-    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3668,103 +3511,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="19.796875" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="85.796875" customWidth="1"/>
+    <col min="7" max="7" width="85.83203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="D2" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="92"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="93"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
+      <c r="D4" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="36"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
+      <c r="D6" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
@@ -3773,7 +3616,7 @@
     <row r="7" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="8" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="9" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3791,17 +3634,17 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="99"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>45</v>
+      <c r="B10" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -3810,279 +3653,359 @@
         <v>5</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
+        <v>55</v>
+      </c>
+      <c r="H10" s="98"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
+        <v>54</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="83"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="83"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
+    </row>
+    <row r="14" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B14" s="85"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="G14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="81"/>
+    </row>
+    <row r="15" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B15" s="85"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-    </row>
-    <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="83"/>
-      <c r="C14" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-    </row>
-    <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>41</v>
-      </c>
       <c r="G15" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B17" s="83"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B20" s="83"/>
-      <c r="C20" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B21" s="83"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B22" s="83"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="42"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="1"/>
       <c r="E23" s="38"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B24" s="84"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="1"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="85"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="85"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="86"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="88"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="88"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="88"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+  <mergeCells count="31">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B27"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
